--- a/backend/docs/backend-functionalities.xlsx
+++ b/backend/docs/backend-functionalities.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,587 +504,2207 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Auth - Cook</v>
+        <v>Auth - User</v>
       </c>
       <c r="B6" t="str">
-        <v>/api/cook-auth/register</v>
+        <v>/api/auth/logout</v>
       </c>
       <c r="C6" t="str">
         <v>POST</v>
       </c>
       <c r="D6" t="str">
-        <v>cookAuthController.register</v>
+        <v>authController.logout</v>
       </c>
       <c r="E6" t="str">
-        <v>public</v>
+        <v>authMiddleware</v>
       </c>
       <c r="F6" t="str">
-        <v>Chef registration</v>
+        <v>User logout</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Auth - Cook</v>
+        <v>Auth - User</v>
       </c>
       <c r="B7" t="str">
-        <v>/api/cook-auth/login</v>
+        <v>/api/auth/me</v>
       </c>
       <c r="C7" t="str">
-        <v>POST</v>
+        <v>GET</v>
       </c>
       <c r="D7" t="str">
-        <v>cookAuthController.login</v>
+        <v>authController.me</v>
       </c>
       <c r="E7" t="str">
-        <v>public</v>
+        <v>authMiddleware</v>
       </c>
       <c r="F7" t="str">
-        <v>Chef login and tokens</v>
+        <v>Get current user profile</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Auth - Admin</v>
+        <v>Auth - User</v>
       </c>
       <c r="B8" t="str">
-        <v>/api/admin/login</v>
+        <v>/api/auth/change-password</v>
       </c>
       <c r="C8" t="str">
         <v>POST</v>
       </c>
       <c r="D8" t="str">
-        <v>adminController.login</v>
+        <v>authController.changePassword</v>
       </c>
       <c r="E8" t="str">
-        <v>public</v>
+        <v>authMiddleware</v>
       </c>
       <c r="F8" t="str">
-        <v>Admin login (role-based)</v>
+        <v>Change user password</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Admin</v>
+        <v>Auth - User</v>
       </c>
       <c r="B9" t="str">
-        <v>/api/admin/me</v>
+        <v>/api/auth/forgot-password</v>
       </c>
       <c r="C9" t="str">
-        <v>GET</v>
+        <v>POST</v>
       </c>
       <c r="D9" t="str">
-        <v>adminController.me</v>
+        <v>authController.forgotPassword</v>
       </c>
       <c r="E9" t="str">
-        <v>adminAuthMiddleware</v>
+        <v>public</v>
       </c>
       <c r="F9" t="str">
-        <v>Get current admin profile</v>
+        <v>Forgot password request</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Profile - User</v>
+        <v>Auth - User</v>
       </c>
       <c r="B10" t="str">
-        <v>/api/profile</v>
+        <v>/api/auth/reset-password</v>
       </c>
       <c r="C10" t="str">
-        <v>GET</v>
+        <v>POST</v>
       </c>
       <c r="D10" t="str">
-        <v>profileController.getProfile</v>
+        <v>authController.resetPassword</v>
       </c>
       <c r="E10" t="str">
-        <v>authMiddleware</v>
+        <v>public</v>
       </c>
       <c r="F10" t="str">
-        <v>Get own user profile</v>
+        <v>Reset password with token</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Profile - User</v>
+        <v>Auth - Cook</v>
       </c>
       <c r="B11" t="str">
-        <v>/api/profile</v>
+        <v>/api/cook-auth/register</v>
       </c>
       <c r="C11" t="str">
-        <v>PUT</v>
+        <v>POST</v>
       </c>
       <c r="D11" t="str">
-        <v>profileController.updateProfile</v>
+        <v>cookAuthController.register</v>
       </c>
       <c r="E11" t="str">
-        <v>authMiddleware</v>
+        <v>public</v>
       </c>
       <c r="F11" t="str">
-        <v>Update profile (preferences, address)</v>
+        <v>Chef registration</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Profile - User</v>
+        <v>Auth - Cook</v>
       </c>
       <c r="B12" t="str">
-        <v>/api/profile/image</v>
+        <v>/api/cook-auth/login</v>
       </c>
       <c r="C12" t="str">
-        <v>PUT</v>
+        <v>POST</v>
       </c>
       <c r="D12" t="str">
-        <v>profileController.updateProfileImage</v>
+        <v>cookAuthController.login</v>
       </c>
       <c r="E12" t="str">
-        <v>authMiddleware + uploadMiddleware</v>
+        <v>public</v>
       </c>
       <c r="F12" t="str">
-        <v>Upload/change profile image</v>
+        <v>Chef login and tokens</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Assignments</v>
+        <v>Auth - Cook</v>
       </c>
       <c r="B13" t="str">
-        <v>/api/assignments</v>
+        <v>/api/cook-auth/logout</v>
       </c>
       <c r="C13" t="str">
         <v>POST</v>
       </c>
       <c r="D13" t="str">
-        <v>assignmentController.createAssignment</v>
+        <v>cookAuthController.logout</v>
       </c>
       <c r="E13" t="str">
-        <v>adminAuthMiddleware + requirePermission("assignmentManagement")</v>
+        <v>cookAuthMiddleware</v>
       </c>
       <c r="F13" t="str">
-        <v>Create assignment (individual or subscription)</v>
+        <v>Chef logout</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Assignments</v>
+        <v>Auth - Cook</v>
       </c>
       <c r="B14" t="str">
-        <v>/api/assignments/:id</v>
+        <v>/api/cook-auth/me</v>
       </c>
       <c r="C14" t="str">
-        <v>PUT</v>
+        <v>GET</v>
       </c>
       <c r="D14" t="str">
-        <v>assignmentController.updateAssignment</v>
+        <v>cookAuthController.me</v>
       </c>
       <c r="E14" t="str">
-        <v>adminAuthMiddleware</v>
+        <v>cookAuthMiddleware</v>
       </c>
       <c r="F14" t="str">
-        <v>Update assignment (notes, status, etc)</v>
+        <v>Get current chef profile</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Assignments</v>
+        <v>Auth - Cook</v>
       </c>
       <c r="B15" t="str">
-        <v>/api/assignments/available-chefs</v>
+        <v>/api/cook-auth/refresh-token</v>
       </c>
       <c r="C15" t="str">
-        <v>GET</v>
+        <v>POST</v>
       </c>
       <c r="D15" t="str">
-        <v>assignmentController.getAvailableChefs</v>
+        <v>cookAuthController.refreshToken</v>
       </c>
       <c r="E15" t="str">
-        <v>adminAuthMiddleware</v>
+        <v>public</v>
       </c>
       <c r="F15" t="str">
-        <v>Find chefs matching criteria</v>
+        <v>Refresh chef access tokens</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Orders</v>
+        <v>Auth - Cook</v>
       </c>
       <c r="B16" t="str">
-        <v>/api/orders</v>
+        <v>/api/cook-auth/change-password</v>
       </c>
       <c r="C16" t="str">
         <v>POST</v>
       </c>
       <c r="D16" t="str">
-        <v>orderController.createOrder</v>
+        <v>cookAuthController.changePassword</v>
       </c>
       <c r="E16" t="str">
-        <v>authMiddleware</v>
+        <v>cookAuthMiddleware</v>
       </c>
       <c r="F16" t="str">
-        <v>Create an order; may auto-assign if assignment exists</v>
+        <v>Change chef password</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Orders</v>
+        <v>Auth - Cook</v>
       </c>
       <c r="B17" t="str">
-        <v>/api/orders/:id/cancel</v>
+        <v>/api/cook-auth/forgot-password</v>
       </c>
       <c r="C17" t="str">
-        <v>PATCH</v>
+        <v>POST</v>
       </c>
       <c r="D17" t="str">
-        <v>orderController.cancelOrder</v>
+        <v>cookAuthController.forgotPassword</v>
       </c>
       <c r="E17" t="str">
-        <v>authMiddleware/adminAuthMiddleware</v>
+        <v>public</v>
       </c>
       <c r="F17" t="str">
-        <v>Cancel an order (user/admin)</v>
+        <v>Chef forgot password request</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Orders</v>
+        <v>Auth - Cook</v>
       </c>
       <c r="B18" t="str">
-        <v>/api/orders/:id</v>
+        <v>/api/cook-auth/reset-password</v>
       </c>
       <c r="C18" t="str">
-        <v>GET</v>
+        <v>POST</v>
       </c>
       <c r="D18" t="str">
-        <v>orderController.getOrder</v>
+        <v>cookAuthController.resetPassword</v>
       </c>
       <c r="E18" t="str">
-        <v>authMiddleware/cookAuth</v>
+        <v>public</v>
       </c>
       <c r="F18" t="str">
-        <v>Get order details and timeline</v>
+        <v>Reset chef password with token</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Chef Orders</v>
+        <v>Auth - Admin</v>
       </c>
       <c r="B19" t="str">
-        <v>/api/chef-orders/:id/status</v>
+        <v>/api/admin/register</v>
       </c>
       <c r="C19" t="str">
-        <v>PATCH</v>
+        <v>POST</v>
       </c>
       <c r="D19" t="str">
-        <v>chefOrderController.updateStatus</v>
+        <v>adminController.register</v>
       </c>
       <c r="E19" t="str">
-        <v>cookAuthMiddleware</v>
+        <v>adminAuthMiddleware + requireRole("super_admin")</v>
       </c>
       <c r="F19" t="str">
-        <v>Chef updates order status (preparing, on_the_way, delivered)</v>
+        <v>Admin registration (super_admin only)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Subscriptions</v>
+        <v>Auth - Admin</v>
       </c>
       <c r="B20" t="str">
-        <v>/api/subscriptions/generate-orders</v>
+        <v>/api/admin/login</v>
       </c>
       <c r="C20" t="str">
         <v>POST</v>
       </c>
       <c r="D20" t="str">
-        <v>subscriptionController.createSubscriptionOrders</v>
+        <v>adminController.login</v>
       </c>
       <c r="E20" t="str">
-        <v>adminAuthMiddleware</v>
+        <v>public</v>
       </c>
       <c r="F20" t="str">
-        <v>Generate subscription orders for a subscription assignment</v>
+        <v>Admin login (role-based)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Subscriptions</v>
+        <v>Auth - Admin</v>
       </c>
       <c r="B21" t="str">
-        <v>/api/subscriptions/:assignmentId/pause</v>
+        <v>/api/admin/logout</v>
       </c>
       <c r="C21" t="str">
-        <v>PATCH</v>
+        <v>POST</v>
       </c>
       <c r="D21" t="str">
-        <v>subscriptionController.pauseUserSubscription</v>
+        <v>adminController.logout</v>
       </c>
       <c r="E21" t="str">
         <v>adminAuthMiddleware</v>
       </c>
       <c r="F21" t="str">
-        <v>Pause subscription and cancel pending orders</v>
+        <v>Admin logout</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Subscriptions</v>
+        <v>Auth - Admin</v>
       </c>
       <c r="B22" t="str">
-        <v>/api/subscriptions/:assignmentId/resume</v>
+        <v>/api/admin/me</v>
       </c>
       <c r="C22" t="str">
-        <v>PATCH</v>
+        <v>GET</v>
       </c>
       <c r="D22" t="str">
-        <v>subscriptionController.resumeUserSubscription</v>
+        <v>adminController.me</v>
       </c>
       <c r="E22" t="str">
         <v>adminAuthMiddleware</v>
       </c>
       <c r="F22" t="str">
-        <v>Resume subscription and generate upcoming orders</v>
+        <v>Get current admin profile</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Subscriptions</v>
+        <v>Auth - Admin</v>
       </c>
       <c r="B23" t="str">
-        <v>/api/subscriptions</v>
+        <v>/api/admin/refresh-token</v>
       </c>
       <c r="C23" t="str">
-        <v>GET</v>
+        <v>POST</v>
       </c>
       <c r="D23" t="str">
-        <v>subscriptionController.getUserSubscriptions</v>
+        <v>adminController.refreshToken</v>
       </c>
       <c r="E23" t="str">
-        <v>authMiddleware</v>
+        <v>public</v>
       </c>
       <c r="F23" t="str">
-        <v>Get current user subscriptions</v>
+        <v>Refresh admin access tokens</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Notifications</v>
+        <v>Auth - Admin</v>
       </c>
       <c r="B24" t="str">
-        <v>/api/notifications</v>
+        <v>/api/admin/change-password</v>
       </c>
       <c r="C24" t="str">
-        <v>GET</v>
+        <v>POST</v>
       </c>
       <c r="D24" t="str">
-        <v>notificationController.getMyNotifications</v>
+        <v>adminController.changePassword</v>
       </c>
       <c r="E24" t="str">
-        <v>authMiddleware</v>
+        <v>adminAuthMiddleware</v>
       </c>
       <c r="F24" t="str">
-        <v>Fetch user notifications history</v>
+        <v>Change admin password</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Notifications</v>
+        <v>Auth - Admin</v>
       </c>
       <c r="B25" t="str">
-        <v>/api/notifications/chef</v>
+        <v>/api/admin/forgot-password</v>
       </c>
       <c r="C25" t="str">
-        <v>GET</v>
+        <v>POST</v>
       </c>
       <c r="D25" t="str">
-        <v>notificationController.getChefNotifications</v>
+        <v>adminController.forgotPassword</v>
       </c>
       <c r="E25" t="str">
-        <v>cookAuthMiddleware</v>
+        <v>public</v>
       </c>
       <c r="F25" t="str">
-        <v>Fetch chef notifications history</v>
+        <v>Admin forgot password request</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Notifications</v>
+        <v>Auth - Admin</v>
       </c>
       <c r="B26" t="str">
-        <v>/api/notifications/send/:userId</v>
+        <v>/api/admin/reset-password</v>
       </c>
       <c r="C26" t="str">
         <v>POST</v>
       </c>
       <c r="D26" t="str">
-        <v>notificationController.sendNotificationToUser</v>
+        <v>adminController.resetPassword</v>
       </c>
       <c r="E26" t="str">
-        <v>adminAuthMiddleware</v>
+        <v>public</v>
       </c>
       <c r="F26" t="str">
-        <v>Admin send notification to a user/chef/admin</v>
+        <v>Reset admin password with token</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Reviews</v>
+        <v>Admin Dashboard</v>
       </c>
       <c r="B27" t="str">
-        <v>/api/reviews</v>
+        <v>/api/admin/dashboard/stats</v>
       </c>
       <c r="C27" t="str">
-        <v>POST</v>
+        <v>GET</v>
       </c>
       <c r="D27" t="str">
-        <v>reviewController.createReview</v>
+        <v>adminController.getDashboardStats</v>
       </c>
       <c r="E27" t="str">
-        <v>authMiddleware</v>
+        <v>adminAuthMiddleware</v>
       </c>
       <c r="F27" t="str">
-        <v>Create a review for a delivered order</v>
+        <v>Get dashboard statistics (requests today, active chefs, deliveries, revenue)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Reviews</v>
+        <v>Admin Dashboard</v>
       </c>
       <c r="B28" t="str">
-        <v>/api/reviews/:id</v>
+        <v>/api/admin/dashboard/pending-requests</v>
       </c>
       <c r="C28" t="str">
         <v>GET</v>
       </c>
       <c r="D28" t="str">
-        <v>reviewController.getReview</v>
+        <v>adminController.getPendingRequests</v>
       </c>
       <c r="E28" t="str">
-        <v>public/auth</v>
+        <v>adminAuthMiddleware</v>
       </c>
       <c r="F28" t="str">
-        <v>Get a review</v>
+        <v>Get pending order requests (pagination)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Uploads</v>
+        <v>Admin Dashboard</v>
       </c>
       <c r="B29" t="str">
-        <v>/api/profile/image</v>
+        <v>/api/admin/dashboard/processed-requests</v>
       </c>
       <c r="C29" t="str">
-        <v>PUT</v>
+        <v>GET</v>
       </c>
       <c r="D29" t="str">
-        <v>uploadMiddleware + profileController.updateProfileImage</v>
+        <v>adminController.getProcessedRequests</v>
       </c>
       <c r="E29" t="str">
-        <v>authMiddleware</v>
+        <v>adminAuthMiddleware</v>
       </c>
       <c r="F29" t="str">
-        <v>Profile image upload using multer</v>
+        <v>Get processed requests (approved/rejected)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Middleware</v>
+        <v>Admin Dashboard</v>
       </c>
       <c r="B30" t="str">
-        <v>N/A</v>
+        <v>/api/admin/dashboard/chef-status</v>
       </c>
       <c r="C30" t="str">
-        <v>N/A</v>
+        <v>GET</v>
       </c>
       <c r="D30" t="str">
-        <v>authMiddleware / adminAuthMiddleware / cookAuthMiddleware / validationMiddleware</v>
+        <v>adminController.getChefStatus</v>
       </c>
       <c r="E30" t="str">
-        <v>N/A</v>
+        <v>adminAuthMiddleware</v>
       </c>
       <c r="F30" t="str">
-        <v>JWT auth, role/permission checks, Joi validation</v>
+        <v>Get chef status summary (online, offline, pending)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Services</v>
+        <v>Admin Dashboard</v>
       </c>
       <c r="B31" t="str">
-        <v>N/A</v>
+        <v>/api/admin/requests/:id/approve</v>
       </c>
       <c r="C31" t="str">
-        <v>N/A</v>
+        <v>PATCH</v>
       </c>
       <c r="D31" t="str">
-        <v>notificationService, emailService, orderNotificationService, subscriptionService, assignmentValidationService</v>
+        <v>adminController.approveRequest</v>
       </c>
       <c r="E31" t="str">
-        <v>N/A</v>
+        <v>adminAuthMiddleware</v>
       </c>
       <c r="F31" t="str">
-        <v>Business logic and helpers (emails, notifications, validations)</v>
+        <v>Approve a pending order request</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Realtime</v>
+        <v>Admin Dashboard</v>
       </c>
       <c r="B32" t="str">
-        <v>Socket.IO namespaces</v>
+        <v>/api/admin/requests/:id/reject</v>
       </c>
       <c r="C32" t="str">
-        <v>emit</v>
+        <v>PATCH</v>
       </c>
       <c r="D32" t="str">
-        <v>server.js + orderNotificationService</v>
+        <v>adminController.rejectRequest</v>
       </c>
       <c r="E32" t="str">
-        <v>N/A</v>
+        <v>adminAuthMiddleware</v>
       </c>
       <c r="F32" t="str">
-        <v>Real-time notifications to connected users/chefs</v>
+        <v>Reject a pending order request</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Logging</v>
+        <v>Admin Dashboard</v>
       </c>
       <c r="B33" t="str">
-        <v>loggerService</v>
+        <v>/api/admin/requests/:orderId/assign-chef</v>
       </c>
       <c r="C33" t="str">
-        <v>N/A</v>
+        <v>POST</v>
       </c>
       <c r="D33" t="str">
-        <v>loggerService</v>
+        <v>adminController.assignChef</v>
       </c>
       <c r="E33" t="str">
-        <v>N/A</v>
+        <v>adminAuthMiddleware</v>
       </c>
       <c r="F33" t="str">
-        <v>Application logging service used across controllers</v>
+        <v>Assign chef to an order</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Misc</v>
+        <v>Profile - User</v>
       </c>
       <c r="B34" t="str">
-        <v>/api/admin/analytics</v>
+        <v>/api/profile</v>
       </c>
       <c r="C34" t="str">
         <v>GET</v>
       </c>
       <c r="D34" t="str">
-        <v>adminController.analytics (if present)</v>
+        <v>profileController.getProfile</v>
       </c>
       <c r="E34" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Get own user profile</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Profile - User</v>
+      </c>
+      <c r="B35" t="str">
+        <v>/api/profile</v>
+      </c>
+      <c r="C35" t="str">
+        <v>PUT</v>
+      </c>
+      <c r="D35" t="str">
+        <v>profileController.updateProfile</v>
+      </c>
+      <c r="E35" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Update profile (preferences, address)</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Profile - User</v>
+      </c>
+      <c r="B36" t="str">
+        <v>/api/profile</v>
+      </c>
+      <c r="C36" t="str">
+        <v>DELETE</v>
+      </c>
+      <c r="D36" t="str">
+        <v>profileController.deleteProfile</v>
+      </c>
+      <c r="E36" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Delete user account</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Profile - User</v>
+      </c>
+      <c r="B37" t="str">
+        <v>/api/profile/image</v>
+      </c>
+      <c r="C37" t="str">
+        <v>PUT</v>
+      </c>
+      <c r="D37" t="str">
+        <v>profileController.updateProfileImage</v>
+      </c>
+      <c r="E37" t="str">
+        <v>authMiddleware + uploadMiddleware</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Upload/change profile image</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Chef Profile</v>
+      </c>
+      <c r="B38" t="str">
+        <v>/api/chef-profile</v>
+      </c>
+      <c r="C38" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D38" t="str">
+        <v>chefProfileController.getChefProfile</v>
+      </c>
+      <c r="E38" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Get chef profile</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Chef Profile</v>
+      </c>
+      <c r="B39" t="str">
+        <v>/api/chef-profile/:id</v>
+      </c>
+      <c r="C39" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D39" t="str">
+        <v>chefProfileController.getChefProfile</v>
+      </c>
+      <c r="E39" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Get chef profile by ID</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Chef Profile</v>
+      </c>
+      <c r="B40" t="str">
+        <v>/api/chef-profile</v>
+      </c>
+      <c r="C40" t="str">
+        <v>PUT</v>
+      </c>
+      <c r="D40" t="str">
+        <v>chefProfileController.updateChefProfile</v>
+      </c>
+      <c r="E40" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Update chef profile</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Chef Availability</v>
+      </c>
+      <c r="B41" t="str">
+        <v>/api/chef-availability</v>
+      </c>
+      <c r="C41" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D41" t="str">
+        <v>chefAvailabilityController.getAvailability</v>
+      </c>
+      <c r="E41" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Get chef availability</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Chef Availability</v>
+      </c>
+      <c r="B42" t="str">
+        <v>/api/chef-availability/schedule</v>
+      </c>
+      <c r="C42" t="str">
+        <v>PUT</v>
+      </c>
+      <c r="D42" t="str">
+        <v>chefAvailabilityController.updateSchedule</v>
+      </c>
+      <c r="E42" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Update chef schedule</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Chef Availability</v>
+      </c>
+      <c r="B43" t="str">
+        <v>/api/chef-availability/unavailable</v>
+      </c>
+      <c r="C43" t="str">
+        <v>POST</v>
+      </c>
+      <c r="D43" t="str">
+        <v>chefAvailabilityController.addUnavailableDates</v>
+      </c>
+      <c r="E43" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Add unavailable dates</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Chef Availability</v>
+      </c>
+      <c r="B44" t="str">
+        <v>/api/chef-availability/unavailable/:dateId</v>
+      </c>
+      <c r="C44" t="str">
+        <v>DELETE</v>
+      </c>
+      <c r="D44" t="str">
+        <v>chefAvailabilityController.removeUnavailableDates</v>
+      </c>
+      <c r="E44" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Remove unavailable dates</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Chef Availability</v>
+      </c>
+      <c r="B45" t="str">
+        <v>/api/chef-availability/service-areas</v>
+      </c>
+      <c r="C45" t="str">
+        <v>PUT</v>
+      </c>
+      <c r="D45" t="str">
+        <v>chefAvailabilityController.updateServiceAreas</v>
+      </c>
+      <c r="E45" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Update service areas</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Chef Availability</v>
+      </c>
+      <c r="B46" t="str">
+        <v>/api/chef-availability/toggle</v>
+      </c>
+      <c r="C46" t="str">
+        <v>PUT</v>
+      </c>
+      <c r="D46" t="str">
+        <v>chefAvailabilityController.toggleAvailability</v>
+      </c>
+      <c r="E46" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Toggle chef availability status</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Assignments</v>
+      </c>
+      <c r="B47" t="str">
+        <v>/api/assignments</v>
+      </c>
+      <c r="C47" t="str">
+        <v>POST</v>
+      </c>
+      <c r="D47" t="str">
+        <v>assignmentController.createAssignment</v>
+      </c>
+      <c r="E47" t="str">
+        <v>adminAuthMiddleware + requirePermission("assignmentManagement")</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Create assignment (individual or subscription)</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Assignments</v>
+      </c>
+      <c r="B48" t="str">
+        <v>/api/assignments</v>
+      </c>
+      <c r="C48" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D48" t="str">
+        <v>assignmentController.getAssignments</v>
+      </c>
+      <c r="E48" t="str">
         <v>adminAuthMiddleware</v>
       </c>
-      <c r="F34" t="str">
-        <v>Administrative analytics endpoints (if implemented)</v>
+      <c r="F48" t="str">
+        <v>Get all assignments with filters</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Assignments</v>
+      </c>
+      <c r="B49" t="str">
+        <v>/api/assignments/:id</v>
+      </c>
+      <c r="C49" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D49" t="str">
+        <v>assignmentController.getAssignmentById</v>
+      </c>
+      <c r="E49" t="str">
+        <v>adminAuthMiddleware</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Get assignment by ID</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Assignments</v>
+      </c>
+      <c r="B50" t="str">
+        <v>/api/assignments/:id</v>
+      </c>
+      <c r="C50" t="str">
+        <v>PUT</v>
+      </c>
+      <c r="D50" t="str">
+        <v>assignmentController.updateAssignment</v>
+      </c>
+      <c r="E50" t="str">
+        <v>adminAuthMiddleware</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Update assignment (notes, status, etc)</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Assignments</v>
+      </c>
+      <c r="B51" t="str">
+        <v>/api/assignments/:id</v>
+      </c>
+      <c r="C51" t="str">
+        <v>DELETE</v>
+      </c>
+      <c r="D51" t="str">
+        <v>assignmentController.deleteAssignment</v>
+      </c>
+      <c r="E51" t="str">
+        <v>adminAuthMiddleware</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Delete assignment</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Assignments</v>
+      </c>
+      <c r="B52" t="str">
+        <v>/api/assignments/available-chefs</v>
+      </c>
+      <c r="C52" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D52" t="str">
+        <v>assignmentController.getAvailableChefs</v>
+      </c>
+      <c r="E52" t="str">
+        <v>adminAuthMiddleware</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Find chefs matching criteria</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Assignments</v>
+      </c>
+      <c r="B53" t="str">
+        <v>/api/assignments/users-without-chef</v>
+      </c>
+      <c r="C53" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D53" t="str">
+        <v>assignmentController.getUsersWithoutChef</v>
+      </c>
+      <c r="E53" t="str">
+        <v>adminAuthMiddleware</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Get users without assigned chef</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Assignments</v>
+      </c>
+      <c r="B54" t="str">
+        <v>/api/assignments/bulk-assign</v>
+      </c>
+      <c r="C54" t="str">
+        <v>POST</v>
+      </c>
+      <c r="D54" t="str">
+        <v>assignmentController.bulkAssignChefs</v>
+      </c>
+      <c r="E54" t="str">
+        <v>adminAuthMiddleware</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Bulk assign chefs to users</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Assignments</v>
+      </c>
+      <c r="B55" t="str">
+        <v>/api/assignments/:id/suspend</v>
+      </c>
+      <c r="C55" t="str">
+        <v>PATCH</v>
+      </c>
+      <c r="D55" t="str">
+        <v>assignmentController.suspendAssignment</v>
+      </c>
+      <c r="E55" t="str">
+        <v>adminAuthMiddleware</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Suspend an assignment</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Assignments</v>
+      </c>
+      <c r="B56" t="str">
+        <v>/api/assignments/:id/reactivate</v>
+      </c>
+      <c r="C56" t="str">
+        <v>PATCH</v>
+      </c>
+      <c r="D56" t="str">
+        <v>assignmentController.reactivateAssignment</v>
+      </c>
+      <c r="E56" t="str">
+        <v>adminAuthMiddleware</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Reactivate a suspended assignment</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Assignments</v>
+      </c>
+      <c r="B57" t="str">
+        <v>/api/assignments/stats</v>
+      </c>
+      <c r="C57" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D57" t="str">
+        <v>assignmentController.getAssignmentStats</v>
+      </c>
+      <c r="E57" t="str">
+        <v>adminAuthMiddleware</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Get assignment statistics</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="B58" t="str">
+        <v>/api/orders</v>
+      </c>
+      <c r="C58" t="str">
+        <v>POST</v>
+      </c>
+      <c r="D58" t="str">
+        <v>orderController.createOrder</v>
+      </c>
+      <c r="E58" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Create an order; may auto-assign if assignment exists</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="B59" t="str">
+        <v>/api/orders</v>
+      </c>
+      <c r="C59" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D59" t="str">
+        <v>orderController.getOrders</v>
+      </c>
+      <c r="E59" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Get user orders with filters and pagination</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="B60" t="str">
+        <v>/api/orders/history</v>
+      </c>
+      <c r="C60" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D60" t="str">
+        <v>orderController.getOrderHistory</v>
+      </c>
+      <c r="E60" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Get order history (delivered/cancelled)</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="B61" t="str">
+        <v>/api/orders/notifications</v>
+      </c>
+      <c r="C61" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D61" t="str">
+        <v>orderController.getNotifications</v>
+      </c>
+      <c r="E61" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Get order notifications</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="B62" t="str">
+        <v>/api/orders/notifications/:notificationId/read</v>
+      </c>
+      <c r="C62" t="str">
+        <v>PATCH</v>
+      </c>
+      <c r="D62" t="str">
+        <v>orderController.markNotificationRead</v>
+      </c>
+      <c r="E62" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Mark notification as read</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="B63" t="str">
+        <v>/api/orders/assign</v>
+      </c>
+      <c r="C63" t="str">
+        <v>POST</v>
+      </c>
+      <c r="D63" t="str">
+        <v>orderController.assignOrderToChef</v>
+      </c>
+      <c r="E63" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Assign order to chef</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="B64" t="str">
+        <v>/api/orders/:id</v>
+      </c>
+      <c r="C64" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D64" t="str">
+        <v>orderController.getOrderById</v>
+      </c>
+      <c r="E64" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Get order by ID</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="B65" t="str">
+        <v>/api/orders/:id/timeline</v>
+      </c>
+      <c r="C65" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D65" t="str">
+        <v>orderController.getOrderTimeline</v>
+      </c>
+      <c r="E65" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Get order timeline and status history</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="B66" t="str">
+        <v>/api/orders/:id/cancel</v>
+      </c>
+      <c r="C66" t="str">
+        <v>PATCH</v>
+      </c>
+      <c r="D66" t="str">
+        <v>orderController.cancelOrder</v>
+      </c>
+      <c r="E66" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Cancel an order</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="B67" t="str">
+        <v>/api/orders/:id/rate</v>
+      </c>
+      <c r="C67" t="str">
+        <v>PATCH</v>
+      </c>
+      <c r="D67" t="str">
+        <v>orderController.rateOrder</v>
+      </c>
+      <c r="E67" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Rate a delivered order</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Orders</v>
+      </c>
+      <c r="B68" t="str">
+        <v>/api/orders/:id</v>
+      </c>
+      <c r="C68" t="str">
+        <v>DELETE</v>
+      </c>
+      <c r="D68" t="str">
+        <v>orderController.deleteOrder</v>
+      </c>
+      <c r="E68" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Delete an order (only cancelled orders)</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Order Tracking</v>
+      </c>
+      <c r="B69" t="str">
+        <v>/api/order-tracking/:orderId</v>
+      </c>
+      <c r="C69" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D69" t="str">
+        <v>orderTrackingController.getOrderTracking</v>
+      </c>
+      <c r="E69" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Get order tracking information (status, timeline, location)</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Order Tracking</v>
+      </c>
+      <c r="B70" t="str">
+        <v>/api/order-tracking/:orderId/location</v>
+      </c>
+      <c r="C70" t="str">
+        <v>PUT</v>
+      </c>
+      <c r="D70" t="str">
+        <v>orderTrackingController.updateOrderLocation</v>
+      </c>
+      <c r="E70" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Update order location (chef only, when status is onTheWay)</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Chef Orders</v>
+      </c>
+      <c r="B71" t="str">
+        <v>/api/chef-orders</v>
+      </c>
+      <c r="C71" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D71" t="str">
+        <v>chefOrderController.getChefOrders</v>
+      </c>
+      <c r="E71" t="str">
+        <v>cookAuthMiddleware</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Get chef orders with filters (status, orderType, pagination)</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Chef Orders</v>
+      </c>
+      <c r="B72" t="str">
+        <v>/api/chef-orders/stats</v>
+      </c>
+      <c r="C72" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D72" t="str">
+        <v>chefOrderController.getChefOrderStats</v>
+      </c>
+      <c r="E72" t="str">
+        <v>cookAuthMiddleware</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Get chef order statistics (aggregated by status)</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Chef Orders</v>
+      </c>
+      <c r="B73" t="str">
+        <v>/api/chef-orders/schedule</v>
+      </c>
+      <c r="C73" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D73" t="str">
+        <v>chefOrderController.getChefSchedule</v>
+      </c>
+      <c r="E73" t="str">
+        <v>cookAuthMiddleware</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Get chef schedule (by date or week)</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Chef Orders</v>
+      </c>
+      <c r="B74" t="str">
+        <v>/api/chef-orders/assigned-users</v>
+      </c>
+      <c r="C74" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D74" t="str">
+        <v>chefOrderController.getChefAssignedUsers</v>
+      </c>
+      <c r="E74" t="str">
+        <v>cookAuthMiddleware</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Get chef assigned users list</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Chef Orders</v>
+      </c>
+      <c r="B75" t="str">
+        <v>/api/chef-orders/:id</v>
+      </c>
+      <c r="C75" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D75" t="str">
+        <v>chefOrderController.getChefOrderById</v>
+      </c>
+      <c r="E75" t="str">
+        <v>cookAuthMiddleware</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Get chef order by ID with full details</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Chef Orders</v>
+      </c>
+      <c r="B76" t="str">
+        <v>/api/chef-orders/:id/status</v>
+      </c>
+      <c r="C76" t="str">
+        <v>PATCH</v>
+      </c>
+      <c r="D76" t="str">
+        <v>chefOrderController.updateOrderStatus</v>
+      </c>
+      <c r="E76" t="str">
+        <v>cookAuthMiddleware</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Chef updates order status (preparing, onTheWay, delivered) with optional location</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Chef Orders</v>
+      </c>
+      <c r="B77" t="str">
+        <v>/api/chef-orders/:id/notes</v>
+      </c>
+      <c r="C77" t="str">
+        <v>PATCH</v>
+      </c>
+      <c r="D77" t="str">
+        <v>chefOrderController.addChefNotes</v>
+      </c>
+      <c r="E77" t="str">
+        <v>cookAuthMiddleware</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Add chef notes to order</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="B78" t="str">
+        <v>/api/subscriptions</v>
+      </c>
+      <c r="C78" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D78" t="str">
+        <v>subscriptionController.getUserSubscriptions</v>
+      </c>
+      <c r="E78" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Get current user subscriptions (with pagination)</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="B79" t="str">
+        <v>/api/subscriptions/:assignmentId/status</v>
+      </c>
+      <c r="C79" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D79" t="str">
+        <v>subscriptionController.getUserSubscriptionStatus</v>
+      </c>
+      <c r="E79" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Get subscription status and details</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="B80" t="str">
+        <v>/api/subscriptions/:assignmentId/preferences</v>
+      </c>
+      <c r="C80" t="str">
+        <v>PATCH</v>
+      </c>
+      <c r="D80" t="str">
+        <v>subscriptionController.updateUserSubscriptionPreferences</v>
+      </c>
+      <c r="E80" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Update subscription preferences</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="B81" t="str">
+        <v>/api/subscriptions/generate-orders</v>
+      </c>
+      <c r="C81" t="str">
+        <v>POST</v>
+      </c>
+      <c r="D81" t="str">
+        <v>subscriptionController.createSubscriptionOrders</v>
+      </c>
+      <c r="E81" t="str">
+        <v>adminAuthMiddleware + requirePermission("assignmentManagement")</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Generate subscription orders for a subscription assignment</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="B82" t="str">
+        <v>/api/subscriptions/:assignmentId/pause</v>
+      </c>
+      <c r="C82" t="str">
+        <v>PATCH</v>
+      </c>
+      <c r="D82" t="str">
+        <v>subscriptionController.pauseUserSubscription</v>
+      </c>
+      <c r="E82" t="str">
+        <v>adminAuthMiddleware + requirePermission("assignmentManagement")</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Pause subscription and cancel pending orders</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="B83" t="str">
+        <v>/api/subscriptions/:assignmentId/resume</v>
+      </c>
+      <c r="C83" t="str">
+        <v>PATCH</v>
+      </c>
+      <c r="D83" t="str">
+        <v>subscriptionController.resumeUserSubscription</v>
+      </c>
+      <c r="E83" t="str">
+        <v>adminAuthMiddleware + requirePermission("assignmentManagement")</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Resume subscription and generate upcoming orders</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Notifications</v>
+      </c>
+      <c r="B84" t="str">
+        <v>/api/notifications</v>
+      </c>
+      <c r="C84" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D84" t="str">
+        <v>notificationController.getMyNotifications</v>
+      </c>
+      <c r="E84" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Fetch user notifications history</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Notifications</v>
+      </c>
+      <c r="B85" t="str">
+        <v>/api/notifications/chef</v>
+      </c>
+      <c r="C85" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D85" t="str">
+        <v>notificationController.getChefNotifications</v>
+      </c>
+      <c r="E85" t="str">
+        <v>cookAuthMiddleware</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Fetch chef notifications history</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Notifications</v>
+      </c>
+      <c r="B86" t="str">
+        <v>/api/notifications/send/self</v>
+      </c>
+      <c r="C86" t="str">
+        <v>POST</v>
+      </c>
+      <c r="D86" t="str">
+        <v>notificationController.sendNotificationSelf</v>
+      </c>
+      <c r="E86" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F86" t="str">
+        <v>User send notification to self</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Notifications</v>
+      </c>
+      <c r="B87" t="str">
+        <v>/api/notifications/send/:userId</v>
+      </c>
+      <c r="C87" t="str">
+        <v>POST</v>
+      </c>
+      <c r="D87" t="str">
+        <v>notificationController.sendNotificationToUser</v>
+      </c>
+      <c r="E87" t="str">
+        <v>adminAuthMiddleware</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Admin send notification to a user/chef/admin</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Notifications</v>
+      </c>
+      <c r="B88" t="str">
+        <v>/api/notifications/read/:notificationId</v>
+      </c>
+      <c r="C88" t="str">
+        <v>POST</v>
+      </c>
+      <c r="D88" t="str">
+        <v>notificationController.markRead</v>
+      </c>
+      <c r="E88" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Mark user notification as read</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Notifications</v>
+      </c>
+      <c r="B89" t="str">
+        <v>/api/notifications/chef/read/:notificationId</v>
+      </c>
+      <c r="C89" t="str">
+        <v>POST</v>
+      </c>
+      <c r="D89" t="str">
+        <v>notificationController.markReadChef</v>
+      </c>
+      <c r="E89" t="str">
+        <v>cookAuthMiddleware</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Mark chef notification as read</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Reviews</v>
+      </c>
+      <c r="B90" t="str">
+        <v>/api/reviews</v>
+      </c>
+      <c r="C90" t="str">
+        <v>POST</v>
+      </c>
+      <c r="D90" t="str">
+        <v>reviewController.createReview</v>
+      </c>
+      <c r="E90" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Create a review for a delivered order</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Reviews</v>
+      </c>
+      <c r="B91" t="str">
+        <v>/api/reviews/chef/:chefId</v>
+      </c>
+      <c r="C91" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D91" t="str">
+        <v>reviewController.getChefReviews</v>
+      </c>
+      <c r="E91" t="str">
+        <v>public</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Get all reviews for a specific chef</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Reviews</v>
+      </c>
+      <c r="B92" t="str">
+        <v>/api/reviews/my-reviews</v>
+      </c>
+      <c r="C92" t="str">
+        <v>GET</v>
+      </c>
+      <c r="D92" t="str">
+        <v>reviewController.getUserReviews</v>
+      </c>
+      <c r="E92" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Get current user reviews</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Reviews</v>
+      </c>
+      <c r="B93" t="str">
+        <v>/api/reviews/:reviewId</v>
+      </c>
+      <c r="C93" t="str">
+        <v>PUT</v>
+      </c>
+      <c r="D93" t="str">
+        <v>reviewController.updateReview</v>
+      </c>
+      <c r="E93" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Update a review (within 7 days of creation)</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Reviews</v>
+      </c>
+      <c r="B94" t="str">
+        <v>/api/reviews/:reviewId</v>
+      </c>
+      <c r="C94" t="str">
+        <v>DELETE</v>
+      </c>
+      <c r="D94" t="str">
+        <v>reviewController.deleteReview</v>
+      </c>
+      <c r="E94" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Delete a review</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Uploads</v>
+      </c>
+      <c r="B95" t="str">
+        <v>/api/profile/image</v>
+      </c>
+      <c r="C95" t="str">
+        <v>PUT</v>
+      </c>
+      <c r="D95" t="str">
+        <v>uploadMiddleware + profileController.updateProfileImage</v>
+      </c>
+      <c r="E95" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Profile image upload using multer</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Middleware</v>
+      </c>
+      <c r="B96" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C96" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D96" t="str">
+        <v>authMiddleware</v>
+      </c>
+      <c r="E96" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F96" t="str">
+        <v>JWT authentication for user endpoints</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Middleware</v>
+      </c>
+      <c r="B97" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C97" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D97" t="str">
+        <v>adminAuthMiddleware</v>
+      </c>
+      <c r="E97" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F97" t="str">
+        <v>JWT authentication with admin role check</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Middleware</v>
+      </c>
+      <c r="B98" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C98" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D98" t="str">
+        <v>cookAuthMiddleware</v>
+      </c>
+      <c r="E98" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F98" t="str">
+        <v>JWT authentication for chef endpoints</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Middleware</v>
+      </c>
+      <c r="B99" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C99" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D99" t="str">
+        <v>validationMiddleware</v>
+      </c>
+      <c r="E99" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Joi validation for request body, params, and query</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Middleware</v>
+      </c>
+      <c r="B100" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C100" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D100" t="str">
+        <v>uploadMiddleware</v>
+      </c>
+      <c r="E100" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F100" t="str">
+        <v>File upload handling with multer (profile images)</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Middleware</v>
+      </c>
+      <c r="B101" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C101" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D101" t="str">
+        <v>errorMiddleware</v>
+      </c>
+      <c r="E101" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Global error handler with standardized response format</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Middleware</v>
+      </c>
+      <c r="B102" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C102" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D102" t="str">
+        <v>rateLimiters</v>
+      </c>
+      <c r="E102" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Rate limiting: authLimiter (10 req/15min) and generalLimiter (100 req/min)</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Services - Auth</v>
+      </c>
+      <c r="B103" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C103" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D103" t="str">
+        <v>authOperations, passwordService, tokenService, tokenManagement</v>
+      </c>
+      <c r="E103" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F103" t="str">
+        <v>User authentication and token management</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Services - Admin</v>
+      </c>
+      <c r="B104" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C104" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D104" t="str">
+        <v>adminDashboardService</v>
+      </c>
+      <c r="E104" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Admin dashboard statistics, request approval/rejection, chef assignment</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Services - Assignment</v>
+      </c>
+      <c r="B105" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C105" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D105" t="str">
+        <v>assignmentOperationsService, assignmentValidationService, recommendationService</v>
+      </c>
+      <c r="E105" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Assignment CRUD operations, validation, chef recommendations</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Services - Subscription</v>
+      </c>
+      <c r="B106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D106" t="str">
+        <v>subscriptionService, orderGenerationService, subscriptionManagementService</v>
+      </c>
+      <c r="E106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Subscription management, order generation, status tracking</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Services - Notification</v>
+      </c>
+      <c r="B107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D107" t="str">
+        <v>notificationService, orderNotificationService, assignmentNotificationService</v>
+      </c>
+      <c r="E107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Order and assignment notification handling</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Services - Email</v>
+      </c>
+      <c r="B108" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C108" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D108" t="str">
+        <v>emailService, email templates, transporter</v>
+      </c>
+      <c r="E108" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Email sending and template management</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Services - Common</v>
+      </c>
+      <c r="B109" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C109" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D109" t="str">
+        <v>errorHandlerService, responseService, utilsService</v>
+      </c>
+      <c r="E109" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Common utilities and helpers</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Services - Logging</v>
+      </c>
+      <c r="B110" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C110" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D110" t="str">
+        <v>loggerService</v>
+      </c>
+      <c r="E110" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F110" t="str">
+        <v>Application logging service used across controllers</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Realtime</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Socket.IO namespaces</v>
+      </c>
+      <c r="C111" t="str">
+        <v>emit</v>
+      </c>
+      <c r="D111" t="str">
+        <v>server.js + orderNotificationService</v>
+      </c>
+      <c r="E111" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Real-time notifications to connected users/chefs</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Tests - Controllers</v>
+      </c>
+      <c r="B112" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C112" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D112" t="str">
+        <v>orderController.test, assignmentController.test, authController.test</v>
+      </c>
+      <c r="E112" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Controller unit and integration tests</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Tests - Models</v>
+      </c>
+      <c r="B113" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C113" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D113" t="str">
+        <v>user.test, chef.test, order.test, assignment.test, review.test</v>
+      </c>
+      <c r="E113" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F113" t="str">
+        <v>Model validation and data integrity tests</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Tests - Middleware</v>
+      </c>
+      <c r="B114" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C114" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D114" t="str">
+        <v>authMiddleware.test, adminAuthMiddleware.test, cookAuthMiddleware.test, validationMiddleware.test</v>
+      </c>
+      <c r="E114" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Middleware authentication and validation tests</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Tests - Services</v>
+      </c>
+      <c r="B115" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="C115" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D115" t="str">
+        <v>authService.test, emailService.test, notificationService.test, subscriptionService.test, loggerService.test</v>
+      </c>
+      <c r="E115" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Service layer unit tests</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F115"/>
   </ignoredErrors>
 </worksheet>
 </file>